--- a/biology/Botanique/Synurales/Synurales.xlsx
+++ b/biology/Botanique/Synurales/Synurales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Synurales sont un ordre d'algues unicellulaires Ochrophyte de la classe des Chrysophyceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Synurales sont un ordre d'algues unicellulaires Ochrophyte de la classe des Chrysophyceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient de l'ancienne famille type des Synuraceae que certaines classifications ont inclus dans les Mallomonadaceae.
 </t>
@@ -542,12 +556,14 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (9 mars 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (9 mars 2022) :
 Mallomonadaceae Diesing, 1866
 Neotessellaceae B.Y.Jo, J.I.Kim, W.Shin, P.Skaloud &amp; P.Siver, 2016
-Selon World Register of Marine Species                               (9 mars 2022)[3] :
+Selon World Register of Marine Species                               (9 mars 2022) :
 Mallomonadaceae Diesing, 1866
 Neotessellaceae B.Y.Jo, J.I.Kim, W.Shin, P.Skaloud &amp; P.Siver, 2016
 Synuraceae Lemmermann, 1899</t>
@@ -578,9 +594,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L’ordre des Synurales renfermait deux autres familles[2] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L’ordre des Synurales renfermait deux autres familles : 
 les Phalansteriaceae que les règles de nomenclature ont remplacé par Phalansteriidae, avec une taxonomie complètement modifiée ;
 les Synuraceae qui ont été incluses dans les Mallomonadaceae.</t>
         </is>
